--- a/EBNeuro/EBNeuro/Galileo/4.60/report-checklist.xlsx
+++ b/EBNeuro/EBNeuro/Galileo/4.60/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpratesi\Desktop\FSE\EBNeuro\EBNeuro\Galileo\4.60\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D7AA8D-D13C-4454-A131-909F6777EF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6E0072-5B3D-4C5C-96EC-5DF274FA8678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="221">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -726,42 +726,24 @@
     <t>Errore nell'esecuzione di un metodo sulla 'API Middleware Client HTTP'. Per maggiori dettagli vedere i logs applicativi 400 Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: NB] [/msg/vocabulary]</t>
   </si>
   <si>
-    <t>I valori che identificano il sesso del paziente sono codificati nella base dati, per fare questo test abbiamo codificato il valore NB, in ogni caso un errore in fase di invio, qualunque esso sia, per noi è bloccante, il medico a seguito dell'errore deve allertare il service, dopo aver sanato la situazione il medico deve necessariamente ripetere la procedura per firmare il referto e scatenare così un  nuovo tentativo di invio a FSE, il referto puo essere comunque prodotto e conservato sulla nostra base dati ma non potrà essere smarcato come "completato" e non potrà essere considerato quindi un referto firmato e validato.</t>
-  </si>
-  <si>
     <t>Abbiamo aggiunto uno screenshoot dell'errore come esce all'utente nei dati del pacchetto, vedi data.json</t>
   </si>
   <si>
     <t>ERRORE-38| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ] [/msg/semantic]</t>
   </si>
   <si>
-    <t>Questo scenario non si può verificare a regime, per potervi inviare un cda2 con questi problemi abbiamo dovuto modificare le policy del nostro gateway, altrimenti non sarebbe potuto partire un cda2 con un tag obbligatorio mancante, qualsiasi errore in fase di invio per noi è bloccante, il medico riceve l'errore nel momento in cui prova a firmare digitalmente il referto sul nostro applicativo, la firma digitale di solito demandata ad uno dei servizi aruba o infocert, viene effettivamente fatta, a seguire lato server si prova ad inviare il referto ad FSE se c'e' un errore in questa fase viene restituito un messaggio all'utente e il processo si blocca, l'invio è obbligatorio per concludere la procedura, il medico può comunque creare il documento e stamparlo o visionarlo in ogni modo, ma non può risultare un documento firmato digitalmente e chiuso fino al termine della procedura. Se l'errore richiede un intervento di service il medico dovrà ripetere la firma del documento dopo l'intervento del service.</t>
-  </si>
-  <si>
-    <t>Questi valori sono condificati nella base dati quindi per poter inserire un valore diverso si è inserito nella nostra base dati un valore diverso rispetto a quelli ammessi, ma a regime questo non può accadere.</t>
-  </si>
-  <si>
     <t>ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'priorityCode'. One of '{"urn:hl7-org:v3":realmCode, "urn:hl7-org:v3":typeId, "urn:hl7-org:v3":templateId, "urn:hl7-org:v3":id}' is expected. [/msg/syntax]</t>
   </si>
   <si>
-    <t>L'errore generato appositamente per questo test, ma a regime non puo accadere l'invio viene bloccato prima a seguito di un eccezione nella trasformazione xslt.</t>
-  </si>
-  <si>
     <t>ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'effectiveTime'. One of '{"urn:hl7-org:v3":realmCode, "urn:hl7-org:v3":typeId, "urn:hl7-org:v3":templateId, "urn:hl7-org:v3":id, "urn:hl7-org:v3":code}' is expected. [/msg/syntax]</t>
   </si>
   <si>
     <t>Come indicato sopra, un errore bloccante che mostra un messaggio all'utente e lo obbliga a contattare il service per la risoluzione della procedura.</t>
   </si>
   <si>
-    <t>Come sopra un errore del genere puo avvenire solo se volutamente omettiamo i controlli del nostro sistema.</t>
-  </si>
-  <si>
     <t>ERRORE-30| L'elemento ClinicalDocument/legalAuthenticator/signatureCode deve essere valorizzato con il codice "S" ] [/msg/semantic]</t>
   </si>
   <si>
-    <t>Come sopra, l'errore viene gestito dal service, il medico poi deve ripetere l'operazione di firma del referto sul nostro applicativo.</t>
-  </si>
-  <si>
     <t>2024-10-07T10:05:00Z</t>
   </si>
   <si>
@@ -774,9 +756,6 @@
     <t>ERRORE-b4| Sezione Referto: la sezione DEVE essere presente],[ERRORE-b5| Sezione Referto: la sezione DEVE contenere un elemento 'text'] [/msg/semantic]</t>
   </si>
   <si>
-    <t>Errore generato appositamente per eseguire questo test,  a regime non può arrivare un cda2 senza questo elemento.</t>
-  </si>
-  <si>
     <t>2024-10-07T10:14:00Z</t>
   </si>
   <si>
@@ -921,13 +900,22 @@
     <t xml:space="preserve">ERROR: Per maggiori dettagli vedere i logs applicativi 401 Required token claims not found </t>
   </si>
   <si>
-    <t>In questo caso deve per forza intervenire il service, potrebbe essere un errore di configurazione, il medico deve firmare nuovamente il referto dopo la risoluzione del problema.</t>
-  </si>
-  <si>
     <t>Come facciamo a generare un timeout? Avete degli url da chiamare che lo simulano?</t>
   </si>
   <si>
     <t>Per generare un timeout dobbiamo chiamare un url che esiste ma che non risponde in tempo, in alternativa possiamo generare un errore simulandolo ma non sarebbe diverso da ogni altro errore per il nostro sistema, sarebbe un errore mostrato all'utente che dovrebbe ritentare dopo alche secondo oppure avvisare il service se l'errore persiste.</t>
+  </si>
+  <si>
+    <t>Questo tipo di errore genera un messaggio a video al medico, in questo scenario deve per forza intervenire il nostro service, una volta risolto il problema, il medico dovrà ripetere la procedura per completare il cilco di lavoro. Il nostro flusso di lavoro prevede che la procedura di "Firma Referto e Marca Completato" sia eseguita al termine del lavoro, pertanto un errore in questa procedura non impedisce al medico di completare l'esame, non influisce sull'esperienza del paziente in ambulatorio, il medico potrà completare la procedura in qualsiasi momento dopo la risoluzione del problema.</t>
+  </si>
+  <si>
+    <t>Il timeout è un errore generico, gestito come tutti gli altri, viene mostrato un errore a video al medico che ha richiesto la firma e il completamento del referto,  la procedura corrente si interrompe, il medico potrà ripetere la procedura dopo qualche secondo o minuto, se l'errore di timeout era causato da problemi temporanei, la procedura si concluderà correttamente, se invece l'errore persiste, il medico potrà contattare il ns. service, dopo la risoluzione del problema è il medico che dovrà necessariamente ripetere la procedura di firma referto per completare il ciclo di lavoro.</t>
+  </si>
+  <si>
+    <t>Premesso che abbiamo dei controlli sulla composizione del cda2 e sulle informazioni che inseriamo nei tag, specialmente quelle che fanno parte di un dizionario, e che per poter inviare un cda2 mancante di alcuni tag obbligatori abbiamo dovuto modificare il documento xslt che produce il cda2 stesso, questo tipo di errore richiede per forza un intervento di service, il medico riceve un errore a video con alcuni dettagli dell'errore ( si è allegato uno shoot con cio che vede il medico a video ) e dovrà necessariamente contattare il service per risolvere un problema come questo, ma essendo la procedura di "Firma Referto e Marca Refertato" una procedura che viene fatta al termine dell'esame non è bloccante ai fini del lavoro.</t>
+  </si>
+  <si>
+    <t>Come pe tutti gli altri errori, il medico riceve un messaggio a video con alcuni dettagli dell'errore, ma in questo scenario lui non può risolvere la situazione, deve contattare il nostro service, al termine delle operazioni di ripristino il medico deve necessariamente ripetere la procedura di firma del referto, ma essendo in pratica l'ultima procedura prima di considerare l'esame completo non è bloccante ai fini del lavoro.</t>
   </si>
 </sst>
 </file>
@@ -3068,10 +3056,10 @@
   <dimension ref="A1:W620"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="Q10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="U36" sqref="U36"/>
+      <selection pane="bottomRight" activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3120,7 +3108,7 @@
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="58" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D2" s="57"/>
       <c r="F2" s="6"/>
@@ -3380,13 +3368,13 @@
         <v>45572</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J10" s="35" t="s">
         <v>49</v>
@@ -3400,7 +3388,7 @@
         <v>49</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="P10" s="35" t="s">
         <v>100</v>
@@ -3412,12 +3400,12 @@
         <v>100</v>
       </c>
       <c r="S10" s="35" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="T10" s="35"/>
       <c r="U10" s="36"/>
       <c r="V10" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W10" s="38" t="s">
         <v>43</v>
@@ -3443,13 +3431,13 @@
         <v>45572</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J11" s="35" t="s">
         <v>49</v>
@@ -3463,7 +3451,7 @@
         <v>49</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P11" s="35" t="s">
         <v>100</v>
@@ -3475,12 +3463,12 @@
         <v>100</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="T11" s="35"/>
       <c r="U11" s="36"/>
       <c r="V11" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W11" s="38" t="s">
         <v>43</v>
@@ -3513,19 +3501,29 @@
         <v>111</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
+        <v>215</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="P12" s="35" t="s">
+        <v>100</v>
+      </c>
       <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
+      <c r="R12" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="S12" s="35" t="s">
+        <v>218</v>
+      </c>
       <c r="T12" s="35"/>
       <c r="U12" s="36"/>
       <c r="V12" s="37" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="W12" s="38" t="s">
         <v>43</v>
@@ -3568,7 +3566,7 @@
       <c r="T13" s="48"/>
       <c r="U13" s="49"/>
       <c r="V13" s="50" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="W13" s="51" t="s">
         <v>36</v>
@@ -3611,7 +3609,7 @@
       <c r="T14" s="48"/>
       <c r="U14" s="49"/>
       <c r="V14" s="50" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="W14" s="51" t="s">
         <v>36</v>
@@ -3654,7 +3652,7 @@
       <c r="T15" s="48"/>
       <c r="U15" s="49"/>
       <c r="V15" s="50" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="W15" s="51" t="s">
         <v>36</v>
@@ -3697,7 +3695,7 @@
       <c r="T16" s="48"/>
       <c r="U16" s="49"/>
       <c r="V16" s="50" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="W16" s="51" t="s">
         <v>36</v>
@@ -3723,13 +3721,13 @@
         <v>45566</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J17" s="35" t="s">
         <v>49</v>
@@ -3755,12 +3753,12 @@
         <v>100</v>
       </c>
       <c r="S17" s="35" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="T17" s="35"/>
       <c r="U17" s="36"/>
       <c r="V17" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W17" s="38" t="s">
         <v>43</v>
@@ -3786,10 +3784,10 @@
         <v>45566.70208333333</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I18" s="34" t="s">
         <v>150</v>
@@ -3817,11 +3815,13 @@
       <c r="R18" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="S18" s="35"/>
+      <c r="S18" s="35" t="s">
+        <v>219</v>
+      </c>
       <c r="T18" s="35"/>
       <c r="U18" s="36"/>
       <c r="V18" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W18" s="38" t="s">
         <v>43</v>
@@ -3847,13 +3847,13 @@
         <v>45569</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J19" s="35" t="s">
         <v>49</v>
@@ -3878,11 +3878,13 @@
       <c r="R19" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="S19" s="35"/>
+      <c r="S19" s="35" t="s">
+        <v>220</v>
+      </c>
       <c r="T19" s="35"/>
       <c r="U19" s="36"/>
       <c r="V19" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W19" s="38" t="s">
         <v>43</v>
@@ -3908,13 +3910,13 @@
         <v>45569</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J20" s="35" t="s">
         <v>49</v>
@@ -3939,11 +3941,13 @@
       <c r="R20" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="S20" s="35"/>
+      <c r="S20" s="35" t="s">
+        <v>220</v>
+      </c>
       <c r="T20" s="35"/>
       <c r="U20" s="36"/>
       <c r="V20" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W20" s="38" t="s">
         <v>43</v>
@@ -3969,13 +3973,13 @@
         <v>45569</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J21" s="35" t="s">
         <v>49</v>
@@ -4000,11 +4004,13 @@
       <c r="R21" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="S21" s="35"/>
+      <c r="S21" s="35" t="s">
+        <v>220</v>
+      </c>
       <c r="T21" s="35"/>
       <c r="U21" s="36"/>
       <c r="V21" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W21" s="38" t="s">
         <v>43</v>
@@ -4030,13 +4036,13 @@
         <v>45569</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J22" s="35" t="s">
         <v>49</v>
@@ -4062,12 +4068,12 @@
         <v>100</v>
       </c>
       <c r="S22" s="35" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="T22" s="35"/>
       <c r="U22" s="36"/>
       <c r="V22" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W22" s="38" t="s">
         <v>43</v>
@@ -4134,13 +4140,13 @@
         <v>45572</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J24" s="35" t="s">
         <v>49</v>
@@ -4154,7 +4160,7 @@
         <v>49</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P24" s="35" t="s">
         <v>100</v>
@@ -4166,12 +4172,12 @@
         <v>100</v>
       </c>
       <c r="S24" s="35" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="T24" s="35"/>
       <c r="U24" s="36"/>
       <c r="V24" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W24" s="38" t="s">
         <v>43</v>
@@ -4197,13 +4203,13 @@
         <v>45572</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J25" s="35" t="s">
         <v>49</v>
@@ -4217,7 +4223,7 @@
         <v>49</v>
       </c>
       <c r="O25" s="35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P25" s="35" t="s">
         <v>100</v>
@@ -4229,12 +4235,12 @@
         <v>100</v>
       </c>
       <c r="S25" s="35" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="T25" s="35"/>
       <c r="U25" s="36"/>
       <c r="V25" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W25" s="38" t="s">
         <v>43</v>
@@ -4260,13 +4266,13 @@
         <v>45572</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J26" s="35" t="s">
         <v>49</v>
@@ -4280,7 +4286,7 @@
         <v>49</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P26" s="35" t="s">
         <v>100</v>
@@ -4291,13 +4297,13 @@
       <c r="R26" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="S26" s="35" t="s">
-        <v>165</v>
+      <c r="S26" s="32" t="s">
+        <v>161</v>
       </c>
       <c r="T26" s="35"/>
       <c r="U26" s="36"/>
       <c r="V26" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W26" s="38" t="s">
         <v>43</v>
@@ -4323,13 +4329,13 @@
         <v>45572</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J27" s="35" t="s">
         <v>49</v>
@@ -4343,7 +4349,7 @@
         <v>49</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P27" s="35" t="s">
         <v>100</v>
@@ -4355,12 +4361,12 @@
         <v>100</v>
       </c>
       <c r="S27" s="35" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="T27" s="35"/>
       <c r="U27" s="36"/>
       <c r="V27" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W27" s="38" t="s">
         <v>43</v>
@@ -4427,13 +4433,13 @@
         <v>45572</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>49</v>
@@ -4447,7 +4453,7 @@
         <v>49</v>
       </c>
       <c r="O29" s="35" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="P29" s="35" t="s">
         <v>100</v>
@@ -4459,12 +4465,12 @@
         <v>100</v>
       </c>
       <c r="S29" s="35" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="T29" s="35"/>
       <c r="U29" s="36"/>
       <c r="V29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W29" s="38" t="s">
         <v>43</v>
@@ -4695,13 +4701,13 @@
         <v>45572</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J35" s="35" t="s">
         <v>49</v>
@@ -4715,7 +4721,7 @@
         <v>49</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P35" s="35" t="s">
         <v>100</v>
@@ -4727,12 +4733,12 @@
         <v>100</v>
       </c>
       <c r="S35" s="35" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="T35" s="35"/>
       <c r="U35" s="36"/>
       <c r="V35" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W35" s="38" t="s">
         <v>43</v>
@@ -4758,13 +4764,13 @@
         <v>45572</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H36" s="47" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I36" s="47" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J36" s="48" t="s">
         <v>49</v>
@@ -4781,7 +4787,7 @@
       <c r="T36" s="48"/>
       <c r="U36" s="49"/>
       <c r="V36" s="50" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="W36" s="53" t="s">
         <v>36</v>
@@ -11659,27 +11665,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -11937,32 +11922,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188DA7F5-158B-4F2F-BE68-E8B30B468193}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11979,4 +11960,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/EBNeuro/EBNeuro/Galileo/4.60/report-checklist.xlsx
+++ b/EBNeuro/EBNeuro/Galileo/4.60/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpratesi\Desktop\FSE\EBNeuro\EBNeuro\Galileo\4.60\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6E0072-5B3D-4C5C-96EC-5DF274FA8678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA725AA-4A22-4041-9B43-C87A0E485350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="221">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1907,7 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3055,11 +3055,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W620"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S35" sqref="S35"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3513,7 +3513,9 @@
       <c r="P12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="Q12" s="35"/>
+      <c r="Q12" s="35" t="s">
+        <v>100</v>
+      </c>
       <c r="R12" s="35" t="s">
         <v>100</v>
       </c>
@@ -11665,6 +11667,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -11922,28 +11945,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188DA7F5-158B-4F2F-BE68-E8B30B468193}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11960,29 +11987,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>